--- a/07. Model/Data/Hygeine_Report/Model_Reports.xlsx
+++ b/07. Model/Data/Hygeine_Report/Model_Reports.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Description</t>
   </si>
@@ -50,22 +50,22 @@
     <t>Categorical features</t>
   </si>
   <si>
-    <t>Target_Variable</t>
+    <t>Credit_Score</t>
   </si>
   <si>
     <t>Binary</t>
   </si>
   <si>
-    <t>(343124, 217)</t>
-  </si>
-  <si>
-    <t>(300214, 211)</t>
-  </si>
-  <si>
-    <t>(197276, 211)</t>
-  </si>
-  <si>
-    <t>(102938, 211)</t>
+    <t>(100000, 28)</t>
+  </si>
+  <si>
+    <t>(87558, 49)</t>
+  </si>
+  <si>
+    <t>(57558, 49)</t>
+  </si>
+  <si>
+    <t>(30000, 49)</t>
   </si>
   <si>
     <t>Model</t>
@@ -95,25 +95,19 @@
     <t>TT (Sec)</t>
   </si>
   <si>
+    <t>Random Forest Classifier</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Ada Boost Classifier</t>
+  </si>
+  <si>
     <t>Light Gradient Boosting Machine</t>
   </si>
   <si>
-    <t>Random Forest Classifier</t>
-  </si>
-  <si>
-    <t>Gradient Boosting Classifier</t>
-  </si>
-  <si>
     <t>Decision Tree Classifier</t>
-  </si>
-  <si>
-    <t>Ada Boost Classifier</t>
-  </si>
-  <si>
-    <t>Logistic Regression</t>
-  </si>
-  <si>
-    <t>SVM - Linear Kernel</t>
   </si>
 </sst>
 </file>
@@ -538,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -546,7 +540,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>207</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -554,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +558,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -604,28 +598,28 @@
         <v>26</v>
       </c>
       <c r="B2">
-        <v>0.9915</v>
+        <v>0.8803</v>
       </c>
       <c r="C2">
-        <v>0.9995000000000001</v>
+        <v>0.9273</v>
       </c>
       <c r="D2">
-        <v>0.9948</v>
+        <v>0.8319</v>
       </c>
       <c r="E2">
-        <v>0.995</v>
+        <v>0.7729</v>
       </c>
       <c r="F2">
-        <v>0.9949</v>
+        <v>0.8012</v>
       </c>
       <c r="G2">
-        <v>0.9696</v>
+        <v>0.7158</v>
       </c>
       <c r="H2">
-        <v>0.9696</v>
+        <v>0.7168</v>
       </c>
       <c r="I2">
-        <v>59.829</v>
+        <v>1.533</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -633,28 +627,28 @@
         <v>27</v>
       </c>
       <c r="B3">
-        <v>0.9695</v>
+        <v>0.8622</v>
       </c>
       <c r="C3">
-        <v>0.9944</v>
+        <v>0.9246</v>
       </c>
       <c r="D3">
-        <v>0.9851</v>
+        <v>0.9003</v>
       </c>
       <c r="E3">
-        <v>0.9785</v>
+        <v>0.7060999999999999</v>
       </c>
       <c r="F3">
-        <v>0.9818</v>
+        <v>0.7913</v>
       </c>
       <c r="G3">
-        <v>0.8893</v>
+        <v>0.6907</v>
       </c>
       <c r="H3">
-        <v>0.8895</v>
+        <v>0.7023</v>
       </c>
       <c r="I3">
-        <v>17.838</v>
+        <v>1.555</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -662,28 +656,28 @@
         <v>28</v>
       </c>
       <c r="B4">
-        <v>0.9686</v>
+        <v>0.8511</v>
       </c>
       <c r="C4">
-        <v>0.9933</v>
+        <v>0.915</v>
       </c>
       <c r="D4">
-        <v>0.9808</v>
+        <v>0.8948</v>
       </c>
       <c r="E4">
-        <v>0.9815</v>
+        <v>0.6925</v>
       </c>
       <c r="F4">
-        <v>0.9811</v>
+        <v>0.7788</v>
       </c>
       <c r="G4">
-        <v>0.8875999999999999</v>
+        <v>0.6701</v>
       </c>
       <c r="H4">
-        <v>0.8875999999999999</v>
+        <v>0.6846</v>
       </c>
       <c r="I4">
-        <v>64.38200000000001</v>
+        <v>1.256</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -691,28 +685,28 @@
         <v>29</v>
       </c>
       <c r="B5">
-        <v>0.9582000000000001</v>
+        <v>0.8144</v>
       </c>
       <c r="C5">
-        <v>0.9268</v>
+        <v>0.8658</v>
       </c>
       <c r="D5">
-        <v>0.9741</v>
+        <v>0.707</v>
       </c>
       <c r="E5">
-        <v>0.9757</v>
+        <v>0.673</v>
       </c>
       <c r="F5">
-        <v>0.9749</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="G5">
-        <v>0.8507</v>
+        <v>0.5563</v>
       </c>
       <c r="H5">
-        <v>0.8508</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="I5">
-        <v>8.319000000000001</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -720,86 +714,28 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>0.9277</v>
+        <v>0.7806</v>
       </c>
       <c r="C6">
-        <v>0.9723000000000001</v>
+        <v>0.7327</v>
       </c>
       <c r="D6">
-        <v>0.9517</v>
+        <v>0.6186</v>
       </c>
       <c r="E6">
-        <v>0.961</v>
+        <v>0.6358</v>
       </c>
       <c r="F6">
-        <v>0.9563</v>
+        <v>0.6225000000000001</v>
       </c>
       <c r="G6">
-        <v>0.7453</v>
+        <v>0.4689</v>
       </c>
       <c r="H6">
-        <v>0.7457</v>
+        <v>0.4724</v>
       </c>
       <c r="I6">
-        <v>105.526</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>0.8987000000000001</v>
-      </c>
-      <c r="C7">
-        <v>0.9703000000000001</v>
-      </c>
-      <c r="D7">
-        <v>0.8891</v>
-      </c>
-      <c r="E7">
-        <v>0.988</v>
-      </c>
-      <c r="F7">
-        <v>0.9360000000000001</v>
-      </c>
-      <c r="G7">
-        <v>0.697</v>
-      </c>
-      <c r="H7">
-        <v>0.7197</v>
-      </c>
-      <c r="I7">
-        <v>74.691</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8">
-        <v>0.8552</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0.835</v>
-      </c>
-      <c r="E8">
-        <v>0.9895</v>
-      </c>
-      <c r="F8">
-        <v>0.9055</v>
-      </c>
-      <c r="G8">
-        <v>0.6045</v>
-      </c>
-      <c r="H8">
-        <v>0.6469</v>
-      </c>
-      <c r="I8">
-        <v>82.38800000000001</v>
+        <v>0.412</v>
       </c>
     </row>
   </sheetData>
